--- a/SoilBoringLog.xlsx
+++ b/SoilBoringLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F83D6-89E6-496F-923A-7E48CC62F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5766B4-627A-45A4-9E5D-CB436E6EA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="11448" windowHeight="7776" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -626,7 +626,7 @@
       <c r="G2" s="3"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -684,7 +684,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -698,7 +698,7 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -730,7 +730,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -776,7 +776,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -822,7 +822,7 @@
         <v>61.65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -836,7 +836,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -868,7 +868,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -884,11 +884,8 @@
       <c r="N13">
         <v>15.93</v>
       </c>
-      <c r="O13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -907,11 +904,8 @@
       <c r="N14">
         <v>14.7</v>
       </c>
-      <c r="O14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -948,11 +942,8 @@
       <c r="N15">
         <v>14.7</v>
       </c>
-      <c r="O15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -971,11 +962,8 @@
       <c r="N16">
         <v>11.64</v>
       </c>
-      <c r="O16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1012,11 +1000,8 @@
       <c r="N17">
         <v>14.7</v>
       </c>
-      <c r="O17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1029,11 +1014,8 @@
       <c r="E18">
         <v>20.18</v>
       </c>
-      <c r="O18">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1046,11 +1028,8 @@
       <c r="E19">
         <v>17.989999999999998</v>
       </c>
-      <c r="O19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1072,11 +1051,8 @@
       <c r="L20" t="s">
         <v>60</v>
       </c>
-      <c r="O20">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1113,11 +1089,8 @@
       <c r="N21">
         <v>60.64</v>
       </c>
-      <c r="O21">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -1136,11 +1109,8 @@
       <c r="N22">
         <v>31.24</v>
       </c>
-      <c r="O22">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -1156,11 +1126,8 @@
       <c r="N23">
         <v>41.65</v>
       </c>
-      <c r="O23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -1179,11 +1146,8 @@
       <c r="N24">
         <v>23.89</v>
       </c>
-      <c r="O24">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -1214,11 +1178,8 @@
       <c r="N25">
         <v>16.54</v>
       </c>
-      <c r="O25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1237,11 +1198,8 @@
       <c r="N26">
         <v>17.149999999999999</v>
       </c>
-      <c r="O26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1260,11 +1218,8 @@
       <c r="N27">
         <v>21.44</v>
       </c>
-      <c r="O27">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -1301,11 +1256,8 @@
       <c r="N28">
         <v>25.73</v>
       </c>
-      <c r="O28">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1324,11 +1276,8 @@
       <c r="N29">
         <v>23.28</v>
       </c>
-      <c r="O29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -1347,11 +1296,8 @@
       <c r="N30">
         <v>32.46</v>
       </c>
-      <c r="O30">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -1388,11 +1334,8 @@
       <c r="N31">
         <v>29.4</v>
       </c>
-      <c r="O31">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -1426,11 +1369,8 @@
       <c r="L32" t="s">
         <v>62</v>
       </c>
-      <c r="O32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
@@ -1443,11 +1383,8 @@
       <c r="E33">
         <v>15.93</v>
       </c>
-      <c r="O33">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
@@ -1469,11 +1406,8 @@
       <c r="L34" t="s">
         <v>60</v>
       </c>
-      <c r="O34">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
@@ -1486,11 +1420,8 @@
       <c r="E35">
         <v>17.71</v>
       </c>
-      <c r="O35">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
@@ -1503,11 +1434,8 @@
       <c r="E36">
         <v>16.37</v>
       </c>
-      <c r="O36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
@@ -1520,11 +1448,8 @@
       <c r="E37">
         <v>20.350000000000001</v>
       </c>
-      <c r="O37">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -1537,11 +1462,8 @@
       <c r="E38">
         <v>17.28</v>
       </c>
-      <c r="O38">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>54</v>
       </c>
@@ -1554,11 +1476,8 @@
       <c r="E39">
         <v>20.65</v>
       </c>
-      <c r="O39">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -1571,11 +1490,8 @@
       <c r="E40">
         <v>23.1</v>
       </c>
-      <c r="O40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>56</v>
       </c>
@@ -1597,11 +1513,8 @@
       <c r="L41" t="s">
         <v>60</v>
       </c>
-      <c r="O41">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
@@ -1614,11 +1527,8 @@
       <c r="E42">
         <v>18.190000000000001</v>
       </c>
-      <c r="O42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
@@ -1639,9 +1549,6 @@
       </c>
       <c r="L43" t="s">
         <v>60</v>
-      </c>
-      <c r="O43">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/SoilBoringLog.xlsx
+++ b/SoilBoringLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5766B4-627A-45A4-9E5D-CB436E6EA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2FD90B-880E-4C01-A763-5995E77B3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,13 +674,13 @@
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
         <v>38.17</v>
       </c>
     </row>
@@ -688,13 +688,13 @@
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>3.5</v>
-      </c>
-      <c r="E5">
         <v>41.82</v>
       </c>
     </row>
@@ -702,31 +702,31 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="E6">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="F6">
         <v>1.63</v>
       </c>
+      <c r="H6">
+        <v>61.2</v>
+      </c>
       <c r="I6">
-        <v>61.2</v>
+        <v>30.69</v>
       </c>
       <c r="J6">
-        <v>30.69</v>
-      </c>
-      <c r="K6">
         <v>30.51</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -734,31 +734,31 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>60.46</v>
       </c>
       <c r="E7">
-        <v>60.46</v>
-      </c>
-      <c r="F7">
         <v>1.55</v>
       </c>
+      <c r="H7">
+        <v>79.400000000000006</v>
+      </c>
       <c r="I7">
-        <v>79.400000000000006</v>
+        <v>25.39</v>
       </c>
       <c r="J7">
-        <v>25.39</v>
-      </c>
-      <c r="K7">
         <v>54.01</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>1.55</v>
       </c>
     </row>
@@ -766,13 +766,13 @@
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
         <v>80.099999999999994</v>
       </c>
     </row>
@@ -780,31 +780,31 @@
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
       <c r="C9">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D9">
-        <v>9.5</v>
+        <v>64.87</v>
       </c>
       <c r="E9">
-        <v>64.87</v>
-      </c>
-      <c r="F9">
         <v>1.65</v>
       </c>
+      <c r="H9">
+        <v>79.3</v>
+      </c>
       <c r="I9">
-        <v>79.3</v>
+        <v>23.71</v>
       </c>
       <c r="J9">
-        <v>23.71</v>
-      </c>
-      <c r="K9">
         <v>55.59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -812,13 +812,13 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B10">
+        <v>10.5</v>
+      </c>
       <c r="C10">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
         <v>61.65</v>
       </c>
     </row>
@@ -826,13 +826,13 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
       <c r="C11">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D11">
-        <v>12.5</v>
-      </c>
-      <c r="E11">
         <v>60.95</v>
       </c>
     </row>
@@ -840,31 +840,31 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B12">
+        <v>13.5</v>
+      </c>
       <c r="C12">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>66.88</v>
       </c>
       <c r="E12">
-        <v>66.88</v>
-      </c>
-      <c r="F12">
         <v>1.92</v>
       </c>
+      <c r="H12">
+        <v>80.099999999999994</v>
+      </c>
       <c r="I12">
-        <v>80.099999999999994</v>
+        <v>30.99</v>
       </c>
       <c r="J12">
-        <v>30.99</v>
-      </c>
-      <c r="K12">
         <v>49.11</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
         <v>59</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>7.6</v>
       </c>
     </row>
@@ -872,683 +872,776 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
       <c r="C13">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="D13">
-        <v>15.5</v>
-      </c>
-      <c r="E13">
         <v>24.13</v>
       </c>
+      <c r="M13">
+        <v>15.93</v>
+      </c>
       <c r="N13">
-        <v>15.93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B14">
+        <v>16.5</v>
+      </c>
       <c r="C14">
-        <v>16.5</v>
+        <v>16.95</v>
       </c>
       <c r="D14">
-        <v>16.95</v>
+        <v>29.68</v>
       </c>
       <c r="E14">
-        <v>29.68</v>
-      </c>
-      <c r="F14">
         <v>1.89</v>
       </c>
+      <c r="M14">
+        <v>14.7</v>
+      </c>
       <c r="N14">
-        <v>14.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
       <c r="C15">
-        <v>18</v>
+        <v>18.45</v>
       </c>
       <c r="D15">
-        <v>18.45</v>
+        <v>31.48</v>
       </c>
       <c r="E15">
-        <v>31.48</v>
+        <v>1.99</v>
       </c>
       <c r="F15">
-        <v>1.99</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>96.18</v>
       </c>
       <c r="H15">
-        <v>96.18</v>
+        <v>80.8</v>
       </c>
       <c r="I15">
-        <v>80.8</v>
+        <v>31.83</v>
       </c>
       <c r="J15">
-        <v>31.83</v>
-      </c>
-      <c r="K15">
         <v>48.97</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>59</v>
       </c>
+      <c r="M15">
+        <v>14.7</v>
+      </c>
       <c r="N15">
-        <v>14.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B16">
+        <v>19.5</v>
+      </c>
       <c r="C16">
-        <v>19.5</v>
+        <v>19.95</v>
       </c>
       <c r="D16">
-        <v>19.95</v>
+        <v>25.11</v>
       </c>
       <c r="E16">
-        <v>25.11</v>
-      </c>
-      <c r="F16">
         <v>1.99</v>
       </c>
+      <c r="M16">
+        <v>11.64</v>
+      </c>
       <c r="N16">
-        <v>11.64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
       <c r="C17">
-        <v>21</v>
+        <v>21.45</v>
       </c>
       <c r="D17">
-        <v>21.45</v>
+        <v>17.13</v>
       </c>
       <c r="E17">
-        <v>17.13</v>
+        <v>1.94</v>
       </c>
       <c r="F17">
-        <v>1.94</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>56.8</v>
       </c>
       <c r="H17">
-        <v>56.8</v>
+        <v>37</v>
       </c>
       <c r="I17">
-        <v>37</v>
+        <v>19.86</v>
       </c>
       <c r="J17">
-        <v>19.86</v>
-      </c>
-      <c r="K17">
         <v>17.14</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" t="s">
         <v>61</v>
       </c>
+      <c r="M17">
+        <v>14.7</v>
+      </c>
       <c r="N17">
-        <v>14.7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B18">
+        <v>22.5</v>
+      </c>
       <c r="C18">
-        <v>22.5</v>
+        <v>22.95</v>
       </c>
       <c r="D18">
-        <v>22.95</v>
-      </c>
-      <c r="E18">
         <v>20.18</v>
+      </c>
+      <c r="N18">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
       <c r="C19">
-        <v>24</v>
+        <v>24.45</v>
       </c>
       <c r="D19">
-        <v>24.45</v>
-      </c>
-      <c r="E19">
         <v>17.989999999999998</v>
+      </c>
+      <c r="N19">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B20">
+        <v>25.5</v>
+      </c>
       <c r="C20">
-        <v>25.5</v>
+        <v>25.95</v>
       </c>
       <c r="D20">
-        <v>25.95</v>
-      </c>
-      <c r="E20">
         <v>24.92</v>
       </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
         <v>27.64</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
         <v>60</v>
+      </c>
+      <c r="N20">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
       <c r="C21">
-        <v>27</v>
+        <v>27.45</v>
       </c>
       <c r="D21">
-        <v>27.45</v>
+        <v>13.63</v>
       </c>
       <c r="E21">
-        <v>13.63</v>
+        <v>1.97</v>
       </c>
       <c r="F21">
-        <v>1.97</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>82.36</v>
       </c>
       <c r="H21">
-        <v>82.36</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="I21">
-        <v>33.700000000000003</v>
+        <v>12.79</v>
       </c>
       <c r="J21">
-        <v>12.79</v>
-      </c>
-      <c r="K21">
         <v>20.91</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" t="s">
         <v>61</v>
       </c>
+      <c r="M21">
+        <v>60.64</v>
+      </c>
       <c r="N21">
-        <v>60.64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B22">
+        <v>28.5</v>
+      </c>
       <c r="C22">
-        <v>28.5</v>
+        <v>28.95</v>
       </c>
       <c r="D22">
-        <v>28.95</v>
+        <v>27.65</v>
       </c>
       <c r="E22">
-        <v>27.65</v>
-      </c>
-      <c r="F22">
         <v>1.87</v>
       </c>
+      <c r="M22">
+        <v>31.24</v>
+      </c>
       <c r="N22">
-        <v>31.24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
       <c r="C23">
-        <v>30</v>
+        <v>30.45</v>
       </c>
       <c r="D23">
-        <v>30.45</v>
-      </c>
-      <c r="E23">
         <v>24.24</v>
       </c>
+      <c r="M23">
+        <v>41.65</v>
+      </c>
       <c r="N23">
-        <v>41.65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="B24">
+        <v>31.5</v>
+      </c>
       <c r="C24">
-        <v>31.5</v>
+        <v>31.95</v>
       </c>
       <c r="D24">
-        <v>31.95</v>
+        <v>24.67</v>
       </c>
       <c r="E24">
-        <v>24.67</v>
-      </c>
-      <c r="F24">
         <v>1.95</v>
       </c>
+      <c r="M24">
+        <v>23.89</v>
+      </c>
       <c r="N24">
-        <v>23.89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
       <c r="C25">
-        <v>33</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="D25">
-        <v>33.450000000000003</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>25</v>
-      </c>
-      <c r="F25">
         <v>2.0299999999999998</v>
       </c>
+      <c r="H25">
+        <v>77.3</v>
+      </c>
       <c r="I25">
-        <v>77.3</v>
+        <v>27.64</v>
       </c>
       <c r="J25">
-        <v>27.64</v>
-      </c>
-      <c r="K25">
         <v>49.66</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" t="s">
         <v>59</v>
       </c>
+      <c r="M25">
+        <v>16.54</v>
+      </c>
       <c r="N25">
-        <v>16.54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B26">
+        <v>34.5</v>
+      </c>
       <c r="C26">
-        <v>34.5</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="D26">
-        <v>34.950000000000003</v>
+        <v>22.63</v>
       </c>
       <c r="E26">
-        <v>22.63</v>
-      </c>
-      <c r="F26">
         <v>1.89</v>
       </c>
+      <c r="M26">
+        <v>17.149999999999999</v>
+      </c>
       <c r="N26">
-        <v>17.149999999999999</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
       <c r="C27">
-        <v>36</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="D27">
-        <v>36.450000000000003</v>
+        <v>22.31</v>
       </c>
       <c r="E27">
-        <v>22.31</v>
-      </c>
-      <c r="F27">
         <v>1.99</v>
       </c>
+      <c r="M27">
+        <v>21.44</v>
+      </c>
       <c r="N27">
-        <v>21.44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B28">
+        <v>37.5</v>
+      </c>
       <c r="C28">
-        <v>37.5</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="D28">
-        <v>37.950000000000003</v>
+        <v>22.58</v>
       </c>
       <c r="E28">
-        <v>22.58</v>
+        <v>2.13</v>
       </c>
       <c r="F28">
-        <v>2.13</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>91.45</v>
       </c>
       <c r="H28">
-        <v>91.45</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="I28">
-        <v>65.099999999999994</v>
+        <v>20.45</v>
       </c>
       <c r="J28">
-        <v>20.45</v>
-      </c>
-      <c r="K28">
         <v>44.65</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" t="s">
         <v>59</v>
       </c>
+      <c r="M28">
+        <v>25.73</v>
+      </c>
       <c r="N28">
-        <v>25.73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="B29">
+        <v>39</v>
+      </c>
       <c r="C29">
-        <v>39</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="D29">
-        <v>39.450000000000003</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="E29">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="F29">
         <v>1.68</v>
       </c>
+      <c r="M29">
+        <v>23.28</v>
+      </c>
       <c r="N29">
-        <v>23.28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="B30">
+        <v>40.5</v>
+      </c>
       <c r="C30">
-        <v>40.5</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="D30">
-        <v>40.950000000000003</v>
+        <v>17.73</v>
       </c>
       <c r="E30">
-        <v>17.73</v>
-      </c>
-      <c r="F30">
         <v>2.06</v>
       </c>
+      <c r="M30">
+        <v>32.46</v>
+      </c>
       <c r="N30">
-        <v>32.46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B31">
+        <v>42</v>
+      </c>
       <c r="C31">
-        <v>42</v>
+        <v>42.45</v>
       </c>
       <c r="D31">
-        <v>42.45</v>
+        <v>18.28</v>
       </c>
       <c r="E31">
-        <v>18.28</v>
+        <v>1.84</v>
       </c>
       <c r="F31">
-        <v>1.84</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>60.63</v>
       </c>
       <c r="H31">
-        <v>60.63</v>
+        <v>31.9</v>
       </c>
       <c r="I31">
-        <v>31.9</v>
+        <v>11.26</v>
       </c>
       <c r="J31">
-        <v>11.26</v>
-      </c>
-      <c r="K31">
         <v>20.64</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" t="s">
         <v>61</v>
       </c>
+      <c r="M31">
+        <v>29.4</v>
+      </c>
       <c r="N31">
-        <v>29.4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="B32">
+        <v>43.5</v>
+      </c>
       <c r="C32">
-        <v>43.5</v>
+        <v>43.95</v>
       </c>
       <c r="D32">
-        <v>43.95</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E32">
-        <v>20.350000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="F32">
-        <v>1.97</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>45.12</v>
       </c>
       <c r="H32">
-        <v>45.12</v>
+        <v>26.3</v>
       </c>
       <c r="I32">
-        <v>26.3</v>
+        <v>14.58</v>
       </c>
       <c r="J32">
-        <v>14.58</v>
-      </c>
-      <c r="K32">
         <v>11.72</v>
       </c>
-      <c r="L32" t="s">
+      <c r="K32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
       <c r="C33">
-        <v>45</v>
+        <v>45.45</v>
       </c>
       <c r="D33">
-        <v>45.45</v>
-      </c>
-      <c r="E33">
         <v>15.93</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B34">
+        <v>46.5</v>
+      </c>
       <c r="C34">
-        <v>46.5</v>
+        <v>46.95</v>
       </c>
       <c r="D34">
-        <v>46.95</v>
-      </c>
-      <c r="E34">
         <v>12.39</v>
       </c>
+      <c r="F34">
+        <v>99.77</v>
+      </c>
       <c r="G34">
-        <v>99.77</v>
-      </c>
-      <c r="H34">
         <v>11.99</v>
       </c>
-      <c r="L34" t="s">
+      <c r="K34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
       <c r="C35">
-        <v>48</v>
+        <v>48.45</v>
       </c>
       <c r="D35">
-        <v>48.45</v>
-      </c>
-      <c r="E35">
         <v>17.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B36">
+        <v>49.5</v>
+      </c>
       <c r="C36">
-        <v>49.5</v>
+        <v>49.95</v>
       </c>
       <c r="D36">
-        <v>49.95</v>
-      </c>
-      <c r="E36">
         <v>16.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B37">
+        <v>51</v>
+      </c>
       <c r="C37">
-        <v>51</v>
+        <v>51.45</v>
       </c>
       <c r="D37">
-        <v>51.45</v>
-      </c>
-      <c r="E37">
         <v>20.350000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B38">
+        <v>52.5</v>
+      </c>
       <c r="C38">
-        <v>52.5</v>
+        <v>52.95</v>
       </c>
       <c r="D38">
-        <v>52.95</v>
-      </c>
-      <c r="E38">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B39">
+        <v>54</v>
+      </c>
       <c r="C39">
-        <v>54</v>
+        <v>54.45</v>
       </c>
       <c r="D39">
-        <v>54.45</v>
-      </c>
-      <c r="E39">
         <v>20.65</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B40">
+        <v>55.5</v>
+      </c>
       <c r="C40">
-        <v>55.5</v>
+        <v>55.95</v>
       </c>
       <c r="D40">
-        <v>55.95</v>
-      </c>
-      <c r="E40">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
       <c r="C41">
-        <v>57</v>
+        <v>57.45</v>
       </c>
       <c r="D41">
-        <v>57.45</v>
-      </c>
-      <c r="E41">
         <v>16.89</v>
       </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
       <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
         <v>12.29</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B42">
+        <v>58.5</v>
+      </c>
       <c r="C42">
-        <v>58.5</v>
+        <v>58.95</v>
       </c>
       <c r="D42">
-        <v>58.95</v>
-      </c>
-      <c r="E42">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
       <c r="C43">
+        <v>60.45</v>
+      </c>
+      <c r="D43">
+        <v>17.93</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>12.66</v>
+      </c>
+      <c r="K43" t="s">
         <v>60</v>
       </c>
-      <c r="D43">
-        <v>60.45</v>
-      </c>
-      <c r="E43">
-        <v>17.93</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>12.66</v>
-      </c>
-      <c r="L43" t="s">
-        <v>60</v>
+      <c r="N43">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
